--- a/CORE/files/excel/SL put zahtjev broj-179.xlsx
+++ b/CORE/files/excel/SL put zahtjev broj-179.xlsx
@@ -433,16 +433,24 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -450,10 +458,21 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -464,7 +483,20 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -475,11 +507,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -488,6 +526,46 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -527,87 +605,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -616,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -764,43 +764,175 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="9" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="10" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="18" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -815,155 +947,29 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="24" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,12 +1292,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1299,20 +1305,20 @@
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="14.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1320,18 +1326,18 @@
     </row>
     <row r="3" spans="1:16" customHeight="1" ht="24">
       <c r="A3" s="1"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1348,10 +1354,10 @@
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1402,16 +1408,16 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="14.4">
       <c r="A8" s="1"/>
@@ -1457,16 +1463,16 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
     </row>
     <row r="11" spans="1:16" customHeight="1" ht="21">
       <c r="A11" s="1"/>
@@ -1476,18 +1482,18 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="50" t="s">
+      <c r="J11" s="57"/>
+      <c r="K11" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="52" t="s">
+      <c r="L11" s="60"/>
+      <c r="M11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="52"/>
+      <c r="N11" s="57"/>
       <c r="O11" s="41" t="s">
         <v>13</v>
       </c>
@@ -1506,19 +1512,19 @@
       <c r="I12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="61">
         <v>120</v>
       </c>
-      <c r="K12" s="56"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="52" t="s">
+      <c r="M12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
     </row>
     <row r="13" spans="1:16" customHeight="1" ht="24.6">
       <c r="A13" s="1"/>
@@ -1528,16 +1534,16 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" spans="1:16" customHeight="1" ht="24">
       <c r="A14" s="1"/>
@@ -1550,15 +1556,15 @@
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="1:16" customHeight="1" ht="24">
       <c r="A15" s="1"/>
@@ -1568,21 +1574,21 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="57">
+      <c r="J15" s="57"/>
+      <c r="K15" s="56">
         <v>4</v>
       </c>
-      <c r="L15" s="57"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="56">
         <v>12</v>
       </c>
-      <c r="O15" s="57"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="36" t="s">
         <v>23</v>
       </c>
@@ -1595,16 +1601,16 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="1:16" customHeight="1" ht="24">
       <c r="A17" s="1"/>
@@ -1614,18 +1620,18 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="50" t="s">
+      <c r="J17" s="57"/>
+      <c r="K17" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
     </row>
     <row r="18" spans="1:16" customHeight="1" ht="24">
       <c r="A18" s="1"/>
@@ -1635,18 +1641,18 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53" t="s">
+      <c r="J18" s="57"/>
+      <c r="K18" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
@@ -1757,11 +1763,11 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:16">
@@ -1801,271 +1807,276 @@
       <c r="G30" s="42"/>
     </row>
     <row r="32" spans="1:16" customHeight="1" ht="100.8">
-      <c r="A32" s="115"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A33" s="115"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="115"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="115"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="115"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="115"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="115"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="115"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="115"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="115"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="115"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="115"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="115"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="115"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="115"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="115"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="115"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="115"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="115"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="115"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="115"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="115"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="115"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="115"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="I13:P13"/>
     <mergeCell ref="J14:P14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="N21:P21"/>
@@ -2076,11 +2087,6 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2105,7 +2111,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2121,25 +2127,25 @@
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="24">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="1"/>
       <c r="I1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="24">
@@ -2152,16 +2158,16 @@
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
     </row>
     <row r="3" spans="1:16" customHeight="1" ht="24">
       <c r="A3" s="47" t="s">
@@ -2178,10 +2184,10 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="6" t="s">
         <v>39</v>
       </c>
@@ -2206,15 +2212,15 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="57" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="57"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="6" t="s">
         <v>39</v>
       </c>
@@ -2233,15 +2239,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="57">
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="56">
         <v>4</v>
       </c>
-      <c r="M5" s="57"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="6" t="s">
         <v>47</v>
       </c>
@@ -2281,36 +2287,36 @@
         <v>49</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="90" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="91"/>
+      <c r="P7" s="105"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="18.6">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="I8" s="67" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="I8" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="15" t="s">
         <v>54</v>
       </c>
@@ -2318,21 +2324,21 @@
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="I9" s="73" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="I9" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="17"/>
       <c r="N9" s="15">
         <v>200</v>
@@ -2344,22 +2350,22 @@
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="17"/>
       <c r="N10" s="15">
         <v>76</v>
@@ -2380,12 +2386,12 @@
       <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="39"/>
       <c r="N11" s="16"/>
       <c r="O11" s="14"/>
@@ -2397,63 +2403,63 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
+      <c r="G12" s="63"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="40"/>
       <c r="N12" s="2"/>
       <c r="O12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="32" t="str">
-        <f>SUM(N9,N10,N11,N12,N13)/2</f>
+      <c r="P12" s="50" t="str">
+        <f>P10/1.95</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="40"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="62" t="s">
+      <c r="O13" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="63"/>
+      <c r="P13" s="107"/>
     </row>
     <row r="14" spans="1:16" customHeight="1" ht="18">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="I14" s="77" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="I14" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
       <c r="O14" s="20"/>
       <c r="P14" s="33"/>
     </row>
@@ -2461,28 +2467,28 @@
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="115">
         <v>5</v>
       </c>
-      <c r="J15" s="84"/>
+      <c r="J15" s="116"/>
       <c r="K15" s="21" t="s">
         <v>62</v>
       </c>
       <c r="L15" s="22"/>
-      <c r="M15" s="84">
+      <c r="M15" s="116">
         <v>600</v>
       </c>
-      <c r="N15" s="84"/>
+      <c r="N15" s="116"/>
       <c r="O15" s="23" t="s">
         <v>57</v>
       </c>
@@ -2498,20 +2504,20 @@
       <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="I16" s="85">
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="I16" s="117">
         <v>5</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="114" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="80">
+      <c r="L16" s="88"/>
+      <c r="M16" s="69">
         <v>307.69</v>
       </c>
-      <c r="N16" s="80"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="24" t="s">
         <v>58</v>
       </c>
@@ -2525,63 +2531,63 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="I17" s="79" t="s">
+      <c r="G17" s="63"/>
+      <c r="I17" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="80">
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="69">
         <v>80</v>
       </c>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="64" t="s">
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="65"/>
+      <c r="P17" s="109"/>
     </row>
     <row r="18" spans="1:16" customHeight="1" ht="21">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="I18" s="81" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="I18" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
       <c r="O18" s="25"/>
       <c r="P18" s="33"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="I19" s="102" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="I19" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="103"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="77"/>
       <c r="N19" s="37">
         <v>100</v>
       </c>
@@ -2597,31 +2603,31 @@
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="102" t="s">
+      <c r="I20" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="103"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="77"/>
       <c r="N20" s="37">
         <v>50</v>
       </c>
       <c r="O20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="35" t="str">
-        <f>SUM(N19:N21)/2</f>
+      <c r="P20" s="51" t="str">
+        <f>P19/1.95</f>
         <v>0</v>
       </c>
     </row>
@@ -2633,16 +2639,16 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="103"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="37"/>
-      <c r="O21" s="64" t="s">
+      <c r="O21" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="P21" s="65"/>
+      <c r="P21" s="109"/>
     </row>
     <row r="22" spans="1:16" customHeight="1" ht="14.4">
       <c r="A22" s="1"/>
@@ -2652,16 +2658,16 @@
       <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="I22" s="104" t="s">
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="I22" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="80"/>
       <c r="O22" s="27" t="s">
         <v>57</v>
       </c>
@@ -2676,21 +2682,21 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="109"/>
+      <c r="G23" s="63"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
       <c r="O23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="P23" s="35" t="str">
-        <f>SUM(P12,P16,P20)/2</f>
+      <c r="P23" s="51" t="str">
+        <f>SUM(P12,P16,P20)</f>
         <v>0</v>
       </c>
     </row>
@@ -2702,14 +2708,14 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="110" t="s">
+      <c r="I24" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="80"/>
       <c r="O24" s="27" t="s">
         <v>57</v>
       </c>
@@ -2718,55 +2724,55 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="113"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
       <c r="O25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="35">
+      <c r="P25" s="51">
         <v>287.18</v>
       </c>
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="20.4">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="69" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="I26" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="71" t="str">
+      <c r="M26" s="91" t="str">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="72"/>
+      <c r="N26" s="92"/>
       <c r="O26" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="35" t="str">
+      <c r="P26" s="51" t="str">
         <f>P23-P25</f>
         <v>0</v>
       </c>
@@ -2775,32 +2781,32 @@
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="96" t="s">
+      <c r="I27" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="98" t="s">
+      <c r="J27" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="99"/>
-      <c r="L27" s="98" t="s">
+      <c r="K27" s="73"/>
+      <c r="L27" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="M27" s="99"/>
-      <c r="N27" s="98" t="s">
+      <c r="M27" s="73"/>
+      <c r="N27" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="99"/>
-      <c r="P27" s="94" t="s">
+      <c r="O27" s="73"/>
+      <c r="P27" s="67" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2812,14 +2818,14 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="95"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="68"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1"/>
@@ -2829,8 +2835,8 @@
       <c r="E29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2846,10 +2852,10 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="63"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3077,28 +3083,42 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="I27:I28"/>
@@ -3111,41 +3131,27 @@
     <mergeCell ref="I22:N23"/>
     <mergeCell ref="I24:N25"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
